--- a/Nokia_AutoMonitor_hour/_config/config.xlsx
+++ b/Nokia_AutoMonitor_hour/_config/config.xlsx
@@ -3,17 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599CFF59-5A85-4FA0-829E-2C8BCFA55C09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA657A97-0F9C-4044-A6BA-F645DB5992F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="6" r:id="rId1"/>
     <sheet name="main" sheetId="1" r:id="rId2"/>
     <sheet name="sql_db" sheetId="2" r:id="rId3"/>
     <sheet name="sql_script_map" sheetId="5" r:id="rId4"/>
-    <sheet name="report" sheetId="3" r:id="rId5"/>
-    <sheet name="e_mail" sheetId="4" r:id="rId6"/>
+    <sheet name="sql_script_map_local" sheetId="7" r:id="rId5"/>
+    <sheet name="report_table_range" sheetId="3" r:id="rId6"/>
+    <sheet name="生成图表kpi" sheetId="8" r:id="rId7"/>
+    <sheet name="e_mail" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +197,97 @@
   </si>
   <si>
     <t>maxue_hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RRC连接建立成功率</t>
+  </si>
+  <si>
+    <t>ERAB建立成功率</t>
+  </si>
+  <si>
+    <t>无线接通率</t>
+  </si>
+  <si>
+    <t>无线掉线率</t>
+  </si>
+  <si>
+    <t>ERAB掉线率</t>
+  </si>
+  <si>
+    <t>切换成功率ZB</t>
+  </si>
+  <si>
+    <t>切换成功率QQ</t>
+  </si>
+  <si>
+    <t>CSMT呼叫回落成功率</t>
+  </si>
+  <si>
+    <t>小区可用率</t>
+  </si>
+  <si>
+    <t>ERAB建立成功率QCI1</t>
+  </si>
+  <si>
+    <t>无线接通率QCI1</t>
+  </si>
+  <si>
+    <t>QCI1上行丢包率</t>
+  </si>
+  <si>
+    <t>QCI1下行丢包率</t>
+  </si>
+  <si>
+    <t>SRVCC切换出成功率</t>
+  </si>
+  <si>
+    <t>内部标准</t>
+  </si>
+  <si>
+    <t>客户标准</t>
+  </si>
+  <si>
+    <t>操作符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告报表呈现时段数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERAB建立成功率REAL</t>
+  </si>
+  <si>
+    <t>指标名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,8 +346,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +375,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -277,10 +390,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,8 +416,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -580,7 +709,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -605,10 +734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -631,14 +760,22 @@
         <v>9</v>
       </c>
       <c r="B2" s="4">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -651,19 +788,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F5E104-90F3-4A0F-AF52-3FE493340A23}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="19.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.9140625" style="1"/>
+    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="28.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -676,8 +814,11 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -690,8 +831,11 @@
       <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -704,8 +848,11 @@
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -718,8 +865,11 @@
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -732,8 +882,11 @@
       <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -746,8 +899,11 @@
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -760,8 +916,11 @@
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -773,6 +932,9 @@
       </c>
       <c r="D8" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -786,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076841C1-B8D1-411F-A1AE-1A60711C7C24}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.65" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -848,7 +1010,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -881,26 +1043,511 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC80AEE-C6D8-4471-8FC1-4DEF89C37AAA}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1D0EB7-E6D7-4CED-871F-720E7766608A}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27.65" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.4140625" customWidth="1"/>
+    <col min="2" max="2" width="32.58203125" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC80AEE-C6D8-4471-8FC1-4DEF89C37AAA}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>99.83</v>
+      </c>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5">
+        <v>99.9</v>
+      </c>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>99.8</v>
+      </c>
+      <c r="D6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <v>98.5</v>
+      </c>
+      <c r="D9" s="7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10">
+        <v>99.1</v>
+      </c>
+      <c r="D10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <v>96.5</v>
+      </c>
+      <c r="D11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12">
+        <v>99.25</v>
+      </c>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13">
+        <v>99.8</v>
+      </c>
+      <c r="D13">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>99.6</v>
+      </c>
+      <c r="D14">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>0.25</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>0.15</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17">
+        <v>97</v>
+      </c>
+      <c r="D17">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556DF1AF-1FDF-48E6-982F-76CABC26C73D}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C1E277-9807-4759-B702-5AB6CBFFF9EE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D23" sqref="C23:D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Nokia_AutoMonitor_hour/_config/config.xlsx
+++ b/Nokia_AutoMonitor_hour/_config/config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA657A97-0F9C-4044-A6BA-F645DB5992F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F376D4-0F5E-474E-8FFC-AB4AE7F804DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="819" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="6" r:id="rId1"/>
@@ -14,9 +14,12 @@
     <sheet name="sql_script_map" sheetId="5" r:id="rId4"/>
     <sheet name="sql_script_map_local" sheetId="7" r:id="rId5"/>
     <sheet name="report_table_range" sheetId="3" r:id="rId6"/>
-    <sheet name="生成图表kpi" sheetId="8" r:id="rId7"/>
+    <sheet name="生成趋势图kpi" sheetId="8" r:id="rId7"/>
     <sheet name="e_mail" sheetId="4" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">sql_script_map!$A$1:$C$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="88">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,122 +183,189 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SLEEP_CELL_16A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep_cell_16a_hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxue_hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RRC连接建立成功率</t>
+  </si>
+  <si>
+    <t>ERAB建立成功率</t>
+  </si>
+  <si>
+    <t>无线接通率</t>
+  </si>
+  <si>
+    <t>无线掉线率</t>
+  </si>
+  <si>
+    <t>ERAB掉线率</t>
+  </si>
+  <si>
+    <t>切换成功率ZB</t>
+  </si>
+  <si>
+    <t>切换成功率QQ</t>
+  </si>
+  <si>
+    <t>CSMT呼叫回落成功率</t>
+  </si>
+  <si>
+    <t>小区可用率</t>
+  </si>
+  <si>
+    <t>ERAB建立成功率QCI1</t>
+  </si>
+  <si>
+    <t>无线接通率QCI1</t>
+  </si>
+  <si>
+    <t>QCI1上行丢包率</t>
+  </si>
+  <si>
+    <t>QCI1下行丢包率</t>
+  </si>
+  <si>
+    <t>SRVCC切换出成功率</t>
+  </si>
+  <si>
+    <t>操作符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告报表呈现时段数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERAB建立成功率REAL</t>
+  </si>
+  <si>
+    <t>指标名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
     <t>启用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLEEP_CELL_16A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sleep_cell_16a_hour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxue_hour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RRC连接建立成功率</t>
-  </si>
-  <si>
-    <t>ERAB建立成功率</t>
-  </si>
-  <si>
-    <t>无线接通率</t>
-  </si>
-  <si>
-    <t>无线掉线率</t>
-  </si>
-  <si>
-    <t>ERAB掉线率</t>
-  </si>
-  <si>
-    <t>切换成功率ZB</t>
-  </si>
-  <si>
-    <t>切换成功率QQ</t>
-  </si>
-  <si>
-    <t>CSMT呼叫回落成功率</t>
-  </si>
-  <si>
-    <t>小区可用率</t>
-  </si>
-  <si>
-    <t>ERAB建立成功率QCI1</t>
-  </si>
-  <si>
-    <t>无线接通率QCI1</t>
-  </si>
-  <si>
-    <t>QCI1上行丢包率</t>
-  </si>
-  <si>
-    <t>QCI1下行丢包率</t>
-  </si>
-  <si>
-    <t>SRVCC切换出成功率</t>
-  </si>
-  <si>
-    <t>内部标准</t>
-  </si>
-  <si>
-    <t>客户标准</t>
-  </si>
-  <si>
-    <t>操作符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联脚本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告报表呈现时段数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERAB建立成功率REAL</t>
-  </si>
-  <si>
-    <t>指标名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用Emali功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smtp.126.com</t>
+  </si>
+  <si>
+    <t>cz_nokia_1@126.com</t>
+  </si>
+  <si>
+    <t>Nokia1234</t>
+  </si>
+  <si>
+    <t>08,09,10,11,12,13,14,15,16,17,18,19,20,21,22,23</t>
+  </si>
+  <si>
+    <t>smtp服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许邮件发送时段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主送人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄送人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>174626239@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺基亚五地市日常指标监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13829746035@139.com,elvis.ma@nokia-sbell.com,lijiang.mo@nokia-sbell.com,13826134624@139.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13829746035@139.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +431,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -390,7 +468,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -398,8 +476,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,19 +495,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -709,7 +796,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -736,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -765,10 +852,10 @@
     </row>
     <row r="3" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
@@ -791,7 +878,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -832,7 +919,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -849,7 +936,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -866,7 +953,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -883,7 +970,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -900,7 +987,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -917,7 +1004,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -934,11 +1021,16 @@
         <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8" xr:uid="{FB2164B0-1E2A-4C8B-AFC5-D9319973742E}">
+      <formula1>"启用,否"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -946,19 +1038,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076841C1-B8D1-411F-A1AE-1A60711C7C24}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.65" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.4140625" customWidth="1"/>
     <col min="2" max="3" width="32.58203125" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -968,30 +1061,39 @@
       <c r="C1" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -999,10 +1101,13 @@
         <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1010,33 +1115,50 @@
         <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7" xr:uid="{3556A283-0AB7-4CD2-82CA-E1DCD39F9EEC}">
+      <formula1>"启用,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7" xr:uid="{62837901-E13F-4A80-95DC-675106EC1931}">
+      <formula1>"覆盖,添加"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1044,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1D0EB7-E6D7-4CED-871F-720E7766608A}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.65" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1056,9 +1178,10 @@
     <col min="2" max="2" width="32.58203125" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1069,10 +1192,13 @@
         <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1080,13 +1206,13 @@
         <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -1094,13 +1220,13 @@
         <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1108,56 +1234,61 @@
         <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7" xr:uid="{370A06D6-E856-455B-9B17-9D070791F685}">
+      <formula1>"启用,否"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1168,231 +1299,231 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="6"/>
+    <col min="1" max="1" width="19.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.4140625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.4140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B3" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="6">
+        <v>99.9</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4">
-        <v>99.83</v>
-      </c>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="6">
+        <v>99.8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5">
-        <v>99.9</v>
-      </c>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6">
+      <c r="B8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="6">
+        <v>98.5</v>
+      </c>
+      <c r="D9" s="9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="6">
+        <v>99.1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="6">
+        <v>96.5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="6">
+        <v>99.25</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="6">
         <v>99.8</v>
       </c>
-      <c r="D6">
+      <c r="D13" s="6">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7">
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8">
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9">
-        <v>98.5</v>
-      </c>
-      <c r="D9" s="7">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10">
-        <v>99.1</v>
-      </c>
-      <c r="D10">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11">
-        <v>96.5</v>
-      </c>
-      <c r="D11">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12">
-        <v>99.25</v>
-      </c>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="6">
+        <v>99.6</v>
+      </c>
+      <c r="D14" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13">
-        <v>99.8</v>
-      </c>
-      <c r="D13">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14">
-        <v>99.6</v>
-      </c>
-      <c r="D14">
+      <c r="B16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="6">
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15">
-        <v>0.25</v>
-      </c>
-      <c r="D15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16">
-        <v>0.15</v>
-      </c>
-      <c r="D16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17">
-        <v>97</v>
-      </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>95</v>
       </c>
     </row>
@@ -1407,152 +1538,240 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="8" customWidth="1"/>
+    <col min="1" max="1" width="29" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15" xr:uid="{20244617-E7AE-449B-8D91-DE6BE7FBE84D}">
+      <formula1>"启用,否"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C1E277-9807-4759-B702-5AB6CBFFF9EE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.9140625" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2" xr:uid="{B7610CD2-2C42-46AA-8201-1A83EC384322}">
+      <formula1>"启用,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{36EC20F0-7C51-43CB-8F09-1760E02C1BE8}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{91CEEBAC-D200-4D61-87C0-99BA3030FF42}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{9DDE0F92-B015-4B09-AF37-1F33CC2EE68A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Nokia_AutoMonitor_hour/_config/config.xlsx
+++ b/Nokia_AutoMonitor_hour/_config/config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F376D4-0F5E-474E-8FFC-AB4AE7F804DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286B76D3-7DE9-48E8-A909-AC21E70D96B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="819" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="819" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="e_mail" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">sql_script_map!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">sql_script_map!$A$1:$C$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="101">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,26 +175,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>city_hour-日常监控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否启用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SLEEP_CELL_16A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sleep_cell_16a_hour</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxue_hour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RRC连接建立成功率</t>
   </si>
   <si>
@@ -346,10 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13829746035@139.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,7 +342,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>覆盖</t>
+  </si>
+  <si>
     <t>添加</t>
+  </si>
+  <si>
+    <t>top_volte高丢包小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户容量_16A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>para</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_volte低接通小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city_cell_hour_all
+用户容量_16A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep_cell_16a_hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_拥塞小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需带入时段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要</t>
+  </si>
+  <si>
+    <t>不需要</t>
+  </si>
+  <si>
+    <t>呈现时段数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_volte高掉话小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_SRVCC切换差小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库数据保留时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自动清除数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -424,19 +474,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -455,7 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -473,12 +523,12 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -504,18 +554,21 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -821,10 +874,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -852,7 +905,7 @@
     </row>
     <row r="3" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
@@ -864,6 +917,14 @@
       </c>
       <c r="B4" s="4" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -878,7 +939,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -902,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -919,7 +980,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -936,7 +997,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -953,7 +1014,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -970,7 +1031,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -987,7 +1048,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1004,7 +1065,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1021,7 +1082,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1038,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076841C1-B8D1-411F-A1AE-1A60711C7C24}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.65" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1049,9 +1110,10 @@
     <col min="1" max="1" width="16.4140625" customWidth="1"/>
     <col min="2" max="3" width="32.58203125" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1059,13 +1121,16 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1073,89 +1138,50 @@
         <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7" xr:uid="{3556A283-0AB7-4CD2-82CA-E1DCD39F9EEC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{3556A283-0AB7-4CD2-82CA-E1DCD39F9EEC}">
       <formula1>"启用,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7" xr:uid="{62837901-E13F-4A80-95DC-675106EC1931}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{62837901-E13F-4A80-95DC-675106EC1931}">
       <formula1>"覆盖,添加"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1166,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1D0EB7-E6D7-4CED-871F-720E7766608A}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.65" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1177,11 +1203,13 @@
     <col min="1" max="1" width="16.4140625" customWidth="1"/>
     <col min="2" max="2" width="32.58203125" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.58203125" customWidth="1"/>
+    <col min="5" max="5" width="14.4140625" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1189,16 +1217,22 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1206,87 +1240,166 @@
         <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="1">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>95</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7" xr:uid="{370A06D6-E856-455B-9B17-9D070791F685}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{370A06D6-E856-455B-9B17-9D070791F685}">
       <formula1>"启用,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9" xr:uid="{F8F0B118-A000-42CD-8919-9C3E64DC689A}">
+      <formula1>"需要,不需要"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1298,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC80AEE-C6D8-4471-8FC1-4DEF89C37AAA}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1312,37 +1425,37 @@
     <row r="1" spans="1:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="6">
         <v>99.83</v>
@@ -1351,10 +1464,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5" s="6">
         <v>99.9</v>
@@ -1363,10 +1476,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="6">
         <v>99.8</v>
@@ -1377,10 +1490,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6">
         <v>6.9999999999999993E-2</v>
@@ -1391,10 +1504,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C8" s="6">
         <v>6.9999999999999993E-2</v>
@@ -1405,24 +1518,22 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" s="6">
         <v>98.5</v>
       </c>
-      <c r="D9" s="9">
-        <v>98</v>
-      </c>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="6">
         <v>99.1</v>
@@ -1433,10 +1544,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" s="6">
         <v>96.5</v>
@@ -1447,10 +1558,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="6">
         <v>99.25</v>
@@ -1459,10 +1570,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" s="6">
         <v>99.8</v>
@@ -1473,10 +1584,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14" s="6">
         <v>99.6</v>
@@ -1487,10 +1598,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="6">
         <v>0.25</v>
@@ -1501,10 +1612,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="C16" s="6">
         <v>0.15</v>
@@ -1515,10 +1626,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="C17" s="6">
         <v>97</v>
@@ -1549,122 +1660,122 @@
   <sheetData>
     <row r="1" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1683,7 +1794,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1694,69 +1805,69 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1768,8 +1879,8 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{36EC20F0-7C51-43CB-8F09-1760E02C1BE8}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{91CEEBAC-D200-4D61-87C0-99BA3030FF42}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{9DDE0F92-B015-4B09-AF37-1F33CC2EE68A}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{9DDE0F92-B015-4B09-AF37-1F33CC2EE68A}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{C63DB5A3-D921-4830-90B2-ECC27F71DED1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/Nokia_AutoMonitor_hour/_config/config.xlsx
+++ b/Nokia_AutoMonitor_hour/_config/config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286B76D3-7DE9-48E8-A909-AC21E70D96B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB89C56-81DA-4F42-A685-76DFC6864D8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="819" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="819" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="100">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,10 +164,6 @@
   </si>
   <si>
     <t>city_cell_hour_all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\python_object\Nokia_AutoMonitor\Nokia_AutoMonitor_hour\_db</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -849,7 +845,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -877,7 +873,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -905,7 +901,7 @@
     </row>
     <row r="3" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
@@ -915,13 +911,11 @@
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -963,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -980,7 +974,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -997,7 +991,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1014,7 +1008,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1031,7 +1025,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1048,7 +1042,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1065,7 +1059,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1082,7 +1076,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1096,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.65" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1121,13 +1115,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -1135,13 +1129,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1">
         <v>24</v>
@@ -1149,16 +1143,16 @@
     </row>
     <row r="3" spans="1:5" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -1166,13 +1160,13 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1217,19 +1211,19 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -1240,10 +1234,10 @@
         <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="1">
         <v>24</v>
@@ -1257,13 +1251,13 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1277,13 +1271,13 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1297,13 +1291,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1317,13 +1311,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1337,19 +1331,19 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -1357,19 +1351,19 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -1377,13 +1371,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -1411,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC80AEE-C6D8-4471-8FC1-4DEF89C37AAA}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1425,37 +1419,37 @@
     <row r="1" spans="1:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6">
         <v>99.83</v>
@@ -1464,10 +1458,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="6">
         <v>99.9</v>
@@ -1476,10 +1470,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6">
         <v>99.8</v>
@@ -1490,10 +1484,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="6">
         <v>6.9999999999999993E-2</v>
@@ -1504,10 +1498,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="6">
         <v>6.9999999999999993E-2</v>
@@ -1518,10 +1512,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="6">
         <v>98.5</v>
@@ -1530,10 +1524,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="6">
         <v>99.1</v>
@@ -1544,10 +1538,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6">
         <v>96.5</v>
@@ -1558,10 +1552,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="6">
         <v>99.25</v>
@@ -1570,10 +1564,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="6">
         <v>99.8</v>
@@ -1584,10 +1578,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="6">
         <v>99.6</v>
@@ -1598,10 +1592,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="6">
         <v>0.25</v>
@@ -1612,10 +1606,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="6">
         <v>0.15</v>
@@ -1626,10 +1620,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="6">
         <v>97</v>
@@ -1660,122 +1654,122 @@
   <sheetData>
     <row r="1" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1793,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C1E277-9807-4759-B702-5AB6CBFFF9EE}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1805,69 +1799,69 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Nokia_AutoMonitor_hour/_config/config.xlsx
+++ b/Nokia_AutoMonitor_hour/_config/config.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB89C56-81DA-4F42-A685-76DFC6864D8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FD9124-3DEA-4B8A-9D74-443D83EE92D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="819" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="103">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SQL脚本名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sleep_cell_16a_hour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RRC连接建立成功率</t>
   </si>
   <si>
@@ -278,15 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>smtp.126.com</t>
-  </si>
-  <si>
-    <t>cz_nokia_1@126.com</t>
-  </si>
-  <si>
-    <t>Nokia1234</t>
-  </si>
-  <si>
     <t>08,09,10,11,12,13,14,15,16,17,18,19,20,21,22,23</t>
   </si>
   <si>
@@ -318,10 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>174626239@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>诺基亚五地市日常指标监控</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,19 +327,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户容量_16A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>para</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>top_volte低接通小区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -404,6 +375,49 @@
   </si>
   <si>
     <t>是否自动清除数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xuteng.lin@huanuo-nsb.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smtp.139.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13829746035@139.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>511403wL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区数是否在邮件正文呈现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呈现</t>
+  </si>
+  <si>
+    <t>休眠小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超配置最大激活用户门限小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据业务量TB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QCI1话务量_万Erl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -558,6 +572,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -844,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB791704-7A6D-4F99-A432-4A0C774F1F5D}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -859,7 +876,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -901,7 +918,7 @@
     </row>
     <row r="3" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
@@ -909,13 +926,13 @@
     </row>
     <row r="4" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -957,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -968,13 +985,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -982,101 +999,101 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1113,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.65" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1109,33 +1126,33 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1">
         <v>24</v>
@@ -1143,30 +1160,30 @@
     </row>
     <row r="3" spans="1:5" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1186,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1D0EB7-E6D7-4CED-871F-720E7766608A}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.65" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1198,202 +1215,232 @@
     <col min="2" max="2" width="32.58203125" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="19.58203125" customWidth="1"/>
-    <col min="5" max="5" width="14.4140625" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="5" max="6" width="14.4140625" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="31" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1">
         <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>98</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{370A06D6-E856-455B-9B17-9D070791F685}">
       <formula1>"启用,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9" xr:uid="{F8F0B118-A000-42CD-8919-9C3E64DC689A}">
       <formula1>"需要,不需要"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{DAA928B8-5D3E-439D-BB68-937B552DE935}">
+      <formula1>"呈现,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1406,7 +1453,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1419,37 +1466,37 @@
     <row r="1" spans="1:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="6">
         <v>99.83</v>
@@ -1458,10 +1505,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="6">
         <v>99.9</v>
@@ -1470,10 +1517,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="6">
         <v>99.8</v>
@@ -1484,10 +1531,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6">
         <v>6.9999999999999993E-2</v>
@@ -1498,10 +1545,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="6">
         <v>6.9999999999999993E-2</v>
@@ -1512,10 +1559,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="6">
         <v>98.5</v>
@@ -1524,10 +1571,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="6">
         <v>99.1</v>
@@ -1538,10 +1585,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="6">
         <v>96.5</v>
@@ -1552,10 +1599,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="6">
         <v>99.25</v>
@@ -1564,10 +1611,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="6">
         <v>99.8</v>
@@ -1578,10 +1625,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="6">
         <v>99.6</v>
@@ -1592,10 +1639,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="6">
         <v>0.25</v>
@@ -1606,10 +1653,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="6">
         <v>0.15</v>
@@ -1620,10 +1667,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="6">
         <v>97</v>
@@ -1640,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556DF1AF-1FDF-48E6-982F-76CABC26C73D}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1654,128 +1701,144 @@
   <sheetData>
     <row r="1" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15" xr:uid="{20244617-E7AE-449B-8D91-DE6BE7FBE84D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17" xr:uid="{20244617-E7AE-449B-8D91-DE6BE7FBE84D}">
       <formula1>"启用,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1787,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C1E277-9807-4759-B702-5AB6CBFFF9EE}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1799,69 +1862,67 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>77</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1872,9 +1933,9 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{36EC20F0-7C51-43CB-8F09-1760E02C1BE8}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{9DDE0F92-B015-4B09-AF37-1F33CC2EE68A}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{C63DB5A3-D921-4830-90B2-ECC27F71DED1}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{9DDE0F92-B015-4B09-AF37-1F33CC2EE68A}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{C63DB5A3-D921-4830-90B2-ECC27F71DED1}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{62FC9734-86F5-479C-A5C7-20275830D75E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/Nokia_AutoMonitor_hour/_config/config.xlsx
+++ b/Nokia_AutoMonitor_hour/_config/config.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FD9124-3DEA-4B8A-9D74-443D83EE92D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4670424A-8480-4915-BC50-FCA8543F7290}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="819" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="109">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,18 +382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>smtp.139.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13829746035@139.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>511403wL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,6 +406,41 @@
   </si>
   <si>
     <t>QCI1话务量_万Erl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batrana_yj2017@vip.163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nokia1234567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smtp.163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOLTE切换成功率</t>
+  </si>
+  <si>
+    <t>VOLTE切换成功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QCI1掉线率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_高负荷小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干扰小区大于-105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干扰小区大于-110</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +561,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -575,6 +598,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -861,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB791704-7A6D-4F99-A432-4A0C774F1F5D}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -876,7 +902,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -890,7 +916,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -950,7 +976,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1008,7 +1034,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1025,7 +1051,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1042,7 +1068,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1059,7 +1085,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1076,7 +1102,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1093,7 +1119,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1163,7 +1189,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>62</v>
@@ -1177,7 +1203,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -1203,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1D0EB7-E6D7-4CED-871F-720E7766608A}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.65" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1237,7 +1263,7 @@
         <v>87</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>55</v>
@@ -1269,15 +1295,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>86</v>
@@ -1286,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -1297,10 +1323,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>86</v>
@@ -1309,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>32</v>
@@ -1320,10 +1346,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>86</v>
@@ -1332,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>32</v>
@@ -1343,10 +1369,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>86</v>
@@ -1355,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
@@ -1366,10 +1392,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>86</v>
@@ -1378,10 +1404,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>81</v>
+        <v>95</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -1389,57 +1415,83 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="11" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{370A06D6-E856-455B-9B17-9D070791F685}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C10 C2:C7" xr:uid="{370A06D6-E856-455B-9B17-9D070791F685}">
       <formula1>"启用,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9" xr:uid="{F8F0B118-A000-42CD-8919-9C3E64DC689A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D10 D2:D7" xr:uid="{F8F0B118-A000-42CD-8919-9C3E64DC689A}">
       <formula1>"需要,不需要"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{DAA928B8-5D3E-439D-BB68-937B552DE935}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F10 F2:F7" xr:uid="{DAA928B8-5D3E-439D-BB68-937B552DE935}">
       <formula1>"呈现,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1450,21 +1502,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC80AEE-C6D8-4471-8FC1-4DEF89C37AAA}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.25" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.4140625" style="6" customWidth="1"/>
     <col min="3" max="4" width="16.4140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
+      <c r="A1" s="13"/>
       <c r="B1" s="2" t="s">
         <v>49</v>
       </c>
@@ -1476,7 +1528,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1484,7 +1536,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1492,7 +1544,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1504,7 +1556,7 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1516,7 +1568,7 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1530,7 +1582,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1544,7 +1596,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1558,7 +1610,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1570,7 +1622,7 @@
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1584,7 +1636,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1598,7 +1650,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1610,7 +1662,7 @@
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1624,7 +1676,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1638,7 +1690,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1652,7 +1704,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1666,7 +1718,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1677,6 +1729,29 @@
       </c>
       <c r="D17" s="6">
         <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="6">
+        <v>98</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -1687,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556DF1AF-1FDF-48E6-982F-76CABC26C73D}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1709,7 +1784,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>62</v>
@@ -1717,7 +1792,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>62</v>
@@ -1813,7 +1888,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>62</v>
@@ -1821,7 +1896,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>62</v>
@@ -1829,16 +1904,48 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17" xr:uid="{20244617-E7AE-449B-8D91-DE6BE7FBE84D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B21" xr:uid="{20244617-E7AE-449B-8D91-DE6BE7FBE84D}">
       <formula1>"启用,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1851,7 +1958,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1865,7 +1972,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
@@ -1881,7 +1988,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
@@ -1889,7 +1996,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">
@@ -1897,7 +2004,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.3">

--- a/Nokia_AutoMonitor_hour/_config/config.xlsx
+++ b/Nokia_AutoMonitor_hour/_config/config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4670424A-8480-4915-BC50-FCA8543F7290}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758C3C16-0393-43A3-80B3-2B8B568EADB5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="819" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="6" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="112">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,6 +442,17 @@
   </si>
   <si>
     <t>干扰小区大于-110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否累计保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计保存</t>
+  </si>
+  <si>
+    <t>累计保存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,7 +928,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -939,7 +951,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="4">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
@@ -976,7 +988,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1034,7 +1046,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1139,7 +1151,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.65" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1229,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1D0EB7-E6D7-4CED-871F-720E7766608A}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.65" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1241,12 +1253,12 @@
     <col min="2" max="2" width="32.58203125" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="19.58203125" customWidth="1"/>
-    <col min="5" max="6" width="14.4140625" customWidth="1"/>
-    <col min="7" max="7" width="27.5" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="5" max="7" width="14.4140625" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1265,14 +1277,17 @@
       <c r="F1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1292,10 +1307,13 @@
         <v>61</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1303,7 +1321,7 @@
         <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>86</v>
@@ -1315,10 +1333,13 @@
         <v>95</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1326,7 +1347,7 @@
         <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>86</v>
@@ -1338,10 +1359,13 @@
         <v>95</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1349,7 +1373,7 @@
         <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>86</v>
@@ -1361,10 +1385,13 @@
         <v>95</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1372,7 +1399,7 @@
         <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>86</v>
@@ -1384,10 +1411,13 @@
         <v>95</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1395,7 +1425,7 @@
         <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>86</v>
@@ -1407,10 +1437,13 @@
         <v>95</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1418,7 +1451,7 @@
         <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>85</v>
@@ -1430,10 +1463,13 @@
         <v>95</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1441,7 +1477,7 @@
         <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>86</v>
@@ -1452,11 +1488,14 @@
       <c r="F9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1476,23 +1515,29 @@
         <v>95</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C10 C2:C7" xr:uid="{370A06D6-E856-455B-9B17-9D070791F685}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10" xr:uid="{370A06D6-E856-455B-9B17-9D070791F685}">
       <formula1>"启用,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D10 D2:D7" xr:uid="{F8F0B118-A000-42CD-8919-9C3E64DC689A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{F8F0B118-A000-42CD-8919-9C3E64DC689A}">
       <formula1>"需要,不需要"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F10 F2:F7" xr:uid="{DAA928B8-5D3E-439D-BB68-937B552DE935}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F10" xr:uid="{DAA928B8-5D3E-439D-BB68-937B552DE935}">
       <formula1>"呈现,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G10" xr:uid="{C2C4C1AA-8EA6-4505-812C-9718E3939CFA}">
+      <formula1>"累计保存,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1764,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556DF1AF-1FDF-48E6-982F-76CABC26C73D}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1958,7 +2003,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.3"/>
